--- a/1 NHI impact/output/sfig_8_did_adjust.xlsx
+++ b/1 NHI impact/output/sfig_8_did_adjust.xlsx
@@ -502,19 +502,19 @@
         <v>9.818278739223011</v>
       </c>
       <c r="E2">
-        <v>4.761181365718354</v>
+        <v>4.527720781290361</v>
       </c>
       <c r="F2">
-        <v>-2.355979110508208</v>
+        <v>-0.3722242918873473</v>
       </c>
       <c r="G2">
-        <v>21.99253658895423</v>
+        <v>20.00878177033337</v>
       </c>
       <c r="H2">
-        <v>0.4865347385518124</v>
+        <v>0.9441090758403501</v>
       </c>
       <c r="I2">
-        <v>19.15002273989421</v>
+        <v>18.69244840260567</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P2">
@@ -584,19 +584,19 @@
         <v>8.900739715805502</v>
       </c>
       <c r="E3">
-        <v>5.118306270221265</v>
+        <v>5.480393347511994</v>
       </c>
       <c r="F3">
-        <v>-4.18668029642677</v>
+        <v>-3.433935436928151</v>
       </c>
       <c r="G3">
-        <v>21.98815972803777</v>
+        <v>21.23541486853915</v>
       </c>
       <c r="H3">
-        <v>-1.130956235673709</v>
+        <v>-1.840633866430908</v>
       </c>
       <c r="I3">
-        <v>18.93243566728471</v>
+        <v>19.64211329804191</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P3">
@@ -666,19 +666,19 @@
         <v>1.012038159586347</v>
       </c>
       <c r="E4">
-        <v>2.864143948953878</v>
+        <v>2.926579354431708</v>
       </c>
       <c r="F4">
-        <v>-6.311528046980753</v>
+        <v>-5.574789346508657</v>
       </c>
       <c r="G4">
-        <v>8.335604366153447</v>
+        <v>7.598865665681352</v>
       </c>
       <c r="H4">
-        <v>-4.60158082690158</v>
+        <v>-4.723951972998281</v>
       </c>
       <c r="I4">
-        <v>6.625657146074275</v>
+        <v>6.748028292170975</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P4">
@@ -748,19 +748,19 @@
         <v>0.09363271360077463</v>
       </c>
       <c r="E5">
-        <v>2.723036557381115</v>
+        <v>3.234800593840197</v>
       </c>
       <c r="F5">
-        <v>-6.869124349698029</v>
+        <v>-7.186905740268193</v>
       </c>
       <c r="G5">
-        <v>7.056389776899578</v>
+        <v>7.374171167469742</v>
       </c>
       <c r="H5">
-        <v>-5.243420867452145</v>
+        <v>-6.24645994749479</v>
       </c>
       <c r="I5">
-        <v>5.430686294653694</v>
+        <v>6.433725374696339</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P5">
@@ -830,19 +830,19 @@
         <v>2.928542986632372</v>
       </c>
       <c r="E6">
-        <v>1.764079404310993</v>
+        <v>2.271605998711041</v>
       </c>
       <c r="F6">
-        <v>-1.582177333773232</v>
+        <v>-2.184141503765052</v>
       </c>
       <c r="G6">
-        <v>7.439263307037977</v>
+        <v>8.041227477029796</v>
       </c>
       <c r="H6">
-        <v>-0.5289891116860463</v>
+        <v>-1.523722957906408</v>
       </c>
       <c r="I6">
-        <v>6.386075084950791</v>
+        <v>7.380808931171153</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P6">
@@ -912,19 +912,19 @@
         <v>2.768756533192314</v>
       </c>
       <c r="E7">
-        <v>1.872348451076387</v>
+        <v>2.259737755632048</v>
       </c>
       <c r="F7">
-        <v>-2.018805854595372</v>
+        <v>-2.317216202458617</v>
       </c>
       <c r="G7">
-        <v>7.55631892098</v>
+        <v>7.854729268843245</v>
       </c>
       <c r="H7">
-        <v>-0.9009789974267592</v>
+        <v>-1.660248082351873</v>
       </c>
       <c r="I7">
-        <v>6.438492063811387</v>
+        <v>7.197761148736501</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P7">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P8">
@@ -1061,31 +1061,31 @@
         <v>29.73891267482741</v>
       </c>
       <c r="E9">
-        <v>3.926030781317593</v>
+        <v>7.444284618443284</v>
       </c>
       <c r="F9">
-        <v>19.70012032764055</v>
+        <v>12.98412397801321</v>
       </c>
       <c r="G9">
-        <v>39.77770502201427</v>
+        <v>46.49370137164162</v>
       </c>
       <c r="H9">
-        <v>22.04403374124929</v>
+        <v>15.14838293201308</v>
       </c>
       <c r="I9">
-        <v>37.43379160840554</v>
+        <v>44.32944241764174</v>
       </c>
       <c r="J9">
         <v>41.92426927907604</v>
       </c>
       <c r="K9">
-        <v>4.610187309046164</v>
+        <v>5.192765570759572</v>
       </c>
       <c r="L9">
-        <v>32.88846819136194</v>
+        <v>31.74663578022771</v>
       </c>
       <c r="M9">
-        <v>50.96007036679015</v>
+        <v>52.10190277792438</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P9">
@@ -1160,31 +1160,31 @@
         <v>44.13114290170815</v>
       </c>
       <c r="E10">
-        <v>4.361373971978873</v>
+        <v>6.823614660222588</v>
       </c>
       <c r="F10">
-        <v>32.97918559626193</v>
+        <v>28.77329085273304</v>
       </c>
       <c r="G10">
-        <v>55.28310020715438</v>
+        <v>59.48899495068326</v>
       </c>
       <c r="H10">
-        <v>35.58300699351916</v>
+        <v>30.75710392329236</v>
       </c>
       <c r="I10">
-        <v>52.67927880989714</v>
+        <v>57.50518188012394</v>
       </c>
       <c r="J10">
         <v>41.92426927907604</v>
       </c>
       <c r="K10">
-        <v>4.610187309046164</v>
+        <v>5.192765570759572</v>
       </c>
       <c r="L10">
-        <v>32.88846819136194</v>
+        <v>31.74663578022771</v>
       </c>
       <c r="M10">
-        <v>50.96007036679015</v>
+        <v>52.10190277792438</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P10">
@@ -1254,31 +1254,31 @@
         <v>46.16194416353407</v>
       </c>
       <c r="E11">
-        <v>5.94387606527592</v>
+        <v>8.999315283170461</v>
       </c>
       <c r="F11">
-        <v>30.96355656029328</v>
+        <v>25.90726104570044</v>
       </c>
       <c r="G11">
-        <v>61.36033176677486</v>
+        <v>66.4166272813677</v>
       </c>
       <c r="H11">
-        <v>34.51216114702362</v>
+        <v>28.52361032299909</v>
       </c>
       <c r="I11">
-        <v>57.81172718004451</v>
+        <v>63.80027800406904</v>
       </c>
       <c r="J11">
         <v>41.92426927907604</v>
       </c>
       <c r="K11">
-        <v>4.610187309046164</v>
+        <v>5.192765570759572</v>
       </c>
       <c r="L11">
-        <v>32.88846819136194</v>
+        <v>31.74663578022771</v>
       </c>
       <c r="M11">
-        <v>50.96007036679015</v>
+        <v>52.10190277792438</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P11">
@@ -1348,31 +1348,31 @@
         <v>37.38175437356052</v>
       </c>
       <c r="E12">
-        <v>6.550419068381387</v>
+        <v>8.563204343080047</v>
       </c>
       <c r="F12">
-        <v>20.63244687259763</v>
+        <v>18.10862247577037</v>
       </c>
       <c r="G12">
-        <v>54.13106187452341</v>
+        <v>56.65488627135067</v>
       </c>
       <c r="H12">
-        <v>24.54316891588859</v>
+        <v>20.59818226886666</v>
       </c>
       <c r="I12">
-        <v>50.22033983123245</v>
+        <v>54.16532647825438</v>
       </c>
       <c r="J12">
         <v>41.92426927907604</v>
       </c>
       <c r="K12">
-        <v>4.610187309046164</v>
+        <v>5.192765570759572</v>
       </c>
       <c r="L12">
-        <v>32.88846819136194</v>
+        <v>31.74663578022771</v>
       </c>
       <c r="M12">
-        <v>50.96007036679015</v>
+        <v>52.10190277792438</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P12">
@@ -1442,31 +1442,31 @@
         <v>52.20759228175005</v>
       </c>
       <c r="E13">
-        <v>11.74828973873137</v>
+        <v>8.467842236580346</v>
       </c>
       <c r="F13">
-        <v>22.16741998281315</v>
+        <v>33.1490910739428</v>
       </c>
       <c r="G13">
-        <v>82.24776458068696</v>
+        <v>71.26609348955731</v>
       </c>
       <c r="H13">
-        <v>29.1813675138951</v>
+        <v>35.61092647128548</v>
       </c>
       <c r="I13">
-        <v>75.23381704960501</v>
+        <v>68.80425809221462</v>
       </c>
       <c r="J13">
         <v>41.92426927907604</v>
       </c>
       <c r="K13">
-        <v>4.610187309046164</v>
+        <v>5.192765570759572</v>
       </c>
       <c r="L13">
-        <v>32.88846819136194</v>
+        <v>31.74663578022771</v>
       </c>
       <c r="M13">
-        <v>50.96007036679015</v>
+        <v>52.10190277792438</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P13">
@@ -3616,19 +3616,19 @@
         <v>28.51208043896665</v>
       </c>
       <c r="E38">
-        <v>117.0676476380666</v>
+        <v>64.57779015755939</v>
       </c>
       <c r="F38">
-        <v>-283.6876941711724</v>
+        <v>-125.1313730695342</v>
       </c>
       <c r="G38">
-        <v>340.7118550491057</v>
+        <v>182.1555339474675</v>
       </c>
       <c r="H38">
-        <v>-200.9362926864694</v>
+        <v>-98.05806247103492</v>
       </c>
       <c r="I38">
-        <v>257.9604535644027</v>
+        <v>155.0822233489682</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P38">
@@ -3698,19 +3698,19 @@
         <v>69.57794508451211</v>
       </c>
       <c r="E39">
-        <v>83.7919971148124</v>
+        <v>64.50412062815225</v>
       </c>
       <c r="F39">
-        <v>-153.8812525774687</v>
+        <v>-83.89023390795397</v>
       </c>
       <c r="G39">
-        <v>293.0371427464929</v>
+        <v>223.0461240769782</v>
       </c>
       <c r="H39">
-        <v>-94.65135145320427</v>
+        <v>-56.84780820109344</v>
       </c>
       <c r="I39">
-        <v>233.8072416222285</v>
+        <v>196.0036983701177</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P39">
@@ -3780,19 +3780,19 @@
         <v>2.806782291141964</v>
       </c>
       <c r="E40">
-        <v>42.28458748287863</v>
+        <v>59.95851896422979</v>
       </c>
       <c r="F40">
-        <v>-109.9591180065317</v>
+        <v>-139.8465029705996</v>
       </c>
       <c r="G40">
-        <v>115.5726825888156</v>
+        <v>145.4600675528835</v>
       </c>
       <c r="H40">
-        <v>-80.06948627643331</v>
+        <v>-114.7097554451102</v>
       </c>
       <c r="I40">
-        <v>85.68305085871722</v>
+        <v>120.3233200273941</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P40">
@@ -3862,19 +3862,19 @@
         <v>-48.1530220845875</v>
       </c>
       <c r="E41">
-        <v>34.809512767786</v>
+        <v>50.00336438019214</v>
       </c>
       <c r="F41">
-        <v>-140.9841522871028</v>
+        <v>-167.1210073883917</v>
       </c>
       <c r="G41">
-        <v>44.67810811792781</v>
+        <v>70.81496321921668</v>
       </c>
       <c r="H41">
-        <v>-116.3784134288352</v>
+        <v>-146.1578153755971</v>
       </c>
       <c r="I41">
-        <v>20.07236925966022</v>
+        <v>49.85177120642207</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P41">
@@ -3944,19 +3944,19 @@
         <v>21.90246147634509</v>
       </c>
       <c r="E42">
-        <v>42.25400923555709</v>
+        <v>52.55002998838768</v>
       </c>
       <c r="F42">
-        <v>-90.78189176614838</v>
+        <v>-103.1245496631192</v>
       </c>
       <c r="G42">
-        <v>134.5868147188386</v>
+        <v>146.9294726158094</v>
       </c>
       <c r="H42">
-        <v>-60.9138748277696</v>
+        <v>-81.09370468739452</v>
       </c>
       <c r="I42">
-        <v>104.7187977804598</v>
+        <v>124.8986276400847</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P42">
@@ -4026,19 +4026,19 @@
         <v>54.23246060888582</v>
       </c>
       <c r="E43">
-        <v>35.73331810515051</v>
+        <v>34.44481640772157</v>
       </c>
       <c r="F43">
-        <v>-41.06230343207915</v>
+        <v>-27.71863334209098</v>
       </c>
       <c r="G43">
-        <v>149.5272246498508</v>
+        <v>136.1835545598626</v>
       </c>
       <c r="H43">
-        <v>-15.80355592532221</v>
+        <v>-13.27813900434276</v>
       </c>
       <c r="I43">
-        <v>124.2684771430938</v>
+        <v>121.7430602221144</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P43">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P44">
@@ -4175,31 +4175,31 @@
         <v>93.9815326773539</v>
       </c>
       <c r="E45">
-        <v>30.48932007792346</v>
+        <v>41.36244908062944</v>
       </c>
       <c r="F45">
-        <v>12.67163153564088</v>
+        <v>-4.427990268725196</v>
       </c>
       <c r="G45">
-        <v>175.2914338190669</v>
+        <v>192.391055623433</v>
       </c>
       <c r="H45">
-        <v>34.22356341150998</v>
+        <v>12.91262216694834</v>
       </c>
       <c r="I45">
-        <v>153.7395019431978</v>
+        <v>175.0504431877595</v>
       </c>
       <c r="J45">
         <v>226.6822283614074</v>
       </c>
       <c r="K45">
-        <v>69.34815392979714</v>
+        <v>139.0534715915776</v>
       </c>
       <c r="L45">
-        <v>90.76234426466524</v>
+        <v>-45.85756788334825</v>
       </c>
       <c r="M45">
-        <v>362.6021124581496</v>
+        <v>499.2220246061631</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P45">
@@ -4274,31 +4274,31 @@
         <v>208.4336664126496</v>
       </c>
       <c r="E46">
-        <v>52.17554771375389</v>
+        <v>69.34703128657955</v>
       </c>
       <c r="F46">
-        <v>69.29023468712995</v>
+        <v>43.44323624406778</v>
       </c>
       <c r="G46">
-        <v>347.5770981381693</v>
+        <v>373.4240965812315</v>
       </c>
       <c r="H46">
-        <v>106.1714720200409</v>
+        <v>72.51598265618142</v>
       </c>
       <c r="I46">
-        <v>310.6958608052584</v>
+        <v>344.3513501691178</v>
       </c>
       <c r="J46">
         <v>226.6822283614074</v>
       </c>
       <c r="K46">
-        <v>69.34815392979714</v>
+        <v>139.0534715915776</v>
       </c>
       <c r="L46">
-        <v>90.76234426466524</v>
+        <v>-45.85756788334825</v>
       </c>
       <c r="M46">
-        <v>362.6021124581496</v>
+        <v>499.2220246061631</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P46">
@@ -4368,31 +4368,31 @@
         <v>267.3552342648408</v>
       </c>
       <c r="E47">
-        <v>65.22356401791822</v>
+        <v>91.61256633853971</v>
       </c>
       <c r="F47">
-        <v>93.41493225570809</v>
+        <v>49.39065166318309</v>
       </c>
       <c r="G47">
-        <v>441.2955362739735</v>
+        <v>485.3198168664985</v>
       </c>
       <c r="H47">
-        <v>139.5193978463786</v>
+        <v>87.79790371001656</v>
       </c>
       <c r="I47">
-        <v>395.1910706833031</v>
+        <v>446.9125648196651</v>
       </c>
       <c r="J47">
         <v>226.6822283614074</v>
       </c>
       <c r="K47">
-        <v>69.34815392979714</v>
+        <v>139.0534715915776</v>
       </c>
       <c r="L47">
-        <v>90.76234426466524</v>
+        <v>-45.85756788334825</v>
       </c>
       <c r="M47">
-        <v>362.6021124581496</v>
+        <v>499.2220246061631</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P47">
@@ -4462,31 +4462,31 @@
         <v>240.9804644968577</v>
       </c>
       <c r="E48">
-        <v>107.4045899708895</v>
+        <v>182.2513291883677</v>
       </c>
       <c r="F48">
-        <v>-45.44955658526646</v>
+        <v>-192.6318278206057</v>
       </c>
       <c r="G48">
-        <v>527.4104855789819</v>
+        <v>674.5927568143211</v>
       </c>
       <c r="H48">
-        <v>30.47133637962241</v>
+        <v>-116.2255768468964</v>
       </c>
       <c r="I48">
-        <v>451.4895926140931</v>
+        <v>598.186505840612</v>
       </c>
       <c r="J48">
         <v>226.6822283614074</v>
       </c>
       <c r="K48">
-        <v>69.34815392979714</v>
+        <v>139.0534715915776</v>
       </c>
       <c r="L48">
-        <v>90.76234426466524</v>
+        <v>-45.85756788334825</v>
       </c>
       <c r="M48">
-        <v>362.6021124581496</v>
+        <v>499.2220246061631</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P48">
@@ -4556,31 +4556,31 @@
         <v>322.660243955335</v>
       </c>
       <c r="E49">
-        <v>166.5644661215999</v>
+        <v>460.9185743115596</v>
       </c>
       <c r="F49">
-        <v>-121.5392409612172</v>
+        <v>-773.957050793529</v>
       </c>
       <c r="G49">
-        <v>766.8597288718871</v>
+        <v>1419.277538704199</v>
       </c>
       <c r="H49">
-        <v>-3.800110747142696</v>
+        <v>-580.7235615008702</v>
       </c>
       <c r="I49">
-        <v>649.1205986578127</v>
+        <v>1226.04404941154</v>
       </c>
       <c r="J49">
         <v>226.6822283614074</v>
       </c>
       <c r="K49">
-        <v>69.34815392979714</v>
+        <v>139.0534715915776</v>
       </c>
       <c r="L49">
-        <v>90.76234426466524</v>
+        <v>-45.85756788334825</v>
       </c>
       <c r="M49">
-        <v>362.6021124581496</v>
+        <v>499.2220246061631</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P49">
@@ -6730,19 +6730,19 @@
         <v>-3.037625839937729</v>
       </c>
       <c r="E74">
-        <v>16.5930921115237</v>
+        <v>13.9715751055283</v>
       </c>
       <c r="F74">
-        <v>-48.14899074570614</v>
+        <v>-32.91852922214093</v>
       </c>
       <c r="G74">
-        <v>42.07373906583069</v>
+        <v>26.84327754226547</v>
       </c>
       <c r="H74">
-        <v>-35.55948877067985</v>
+        <v>-30.42140985406959</v>
       </c>
       <c r="I74">
-        <v>29.48423709080439</v>
+        <v>24.34615817419414</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P74">
@@ -6812,19 +6812,19 @@
         <v>-7.647020700316755</v>
       </c>
       <c r="E75">
-        <v>10.79727356541524</v>
+        <v>8.452620327576909</v>
       </c>
       <c r="F75">
-        <v>-37.00138964633035</v>
+        <v>-25.7245766971946</v>
       </c>
       <c r="G75">
-        <v>21.70734824569683</v>
+        <v>10.43053529656109</v>
       </c>
       <c r="H75">
-        <v>-28.80928801975701</v>
+        <v>-24.21385211735865</v>
       </c>
       <c r="I75">
-        <v>13.5152466191235</v>
+        <v>8.919810716725138</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P75">
@@ -6894,19 +6894,19 @@
         <v>3.445697907465172</v>
       </c>
       <c r="E76">
-        <v>9.389721467284357</v>
+        <v>17.64011034364382</v>
       </c>
       <c r="F76">
-        <v>-22.08198244453014</v>
+        <v>-34.28107440335748</v>
       </c>
       <c r="G76">
-        <v>28.97337825946048</v>
+        <v>41.17247021828783</v>
       </c>
       <c r="H76">
-        <v>-14.95781799327475</v>
+        <v>-31.12828304938918</v>
       </c>
       <c r="I76">
-        <v>21.8492138082051</v>
+        <v>38.01967886431952</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P76">
@@ -6976,19 +6976,19 @@
         <v>-8.848836771879135</v>
       </c>
       <c r="E77">
-        <v>8.313138348636038</v>
+        <v>15.26018453161454</v>
       </c>
       <c r="F77">
-        <v>-31.4496284167958</v>
+        <v>-41.48567951435128</v>
       </c>
       <c r="G77">
-        <v>13.75195487303753</v>
+        <v>23.78800597059301</v>
       </c>
       <c r="H77">
-        <v>-25.14228853370454</v>
+        <v>-38.75824885127886</v>
       </c>
       <c r="I77">
-        <v>7.444614989946274</v>
+        <v>21.06057530752059</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P77">
@@ -7058,19 +7058,19 @@
         <v>7.7811167977504</v>
       </c>
       <c r="E78">
-        <v>8.949574431511</v>
+        <v>18.34276867222609</v>
       </c>
       <c r="F78">
-        <v>-16.54994309257853</v>
+        <v>-31.44842563515817</v>
       </c>
       <c r="G78">
-        <v>32.11217668807933</v>
+        <v>47.01065923065897</v>
       </c>
       <c r="H78">
-        <v>-9.759726764971685</v>
+        <v>-28.17004917656232</v>
       </c>
       <c r="I78">
-        <v>25.32196036047248</v>
+        <v>43.73228277206312</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P78">
@@ -7140,19 +7140,19 @@
         <v>18.13729686325888</v>
       </c>
       <c r="E79">
-        <v>8.978893402272142</v>
+        <v>18.27898077118041</v>
       </c>
       <c r="F79">
-        <v>-6.273472027645592</v>
+        <v>-20.95582286185167</v>
       </c>
       <c r="G79">
-        <v>42.54806575416336</v>
+        <v>57.23041658836944</v>
       </c>
       <c r="H79">
-        <v>0.5389891737811752</v>
+        <v>-17.6888471223549</v>
       </c>
       <c r="I79">
-        <v>35.73560455273659</v>
+        <v>53.96344084887266</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P79">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P80">
@@ -7289,31 +7289,31 @@
         <v>62.70428863644013</v>
       </c>
       <c r="E81">
-        <v>9.123748700904418</v>
+        <v>18.90923716448475</v>
       </c>
       <c r="F81">
-        <v>37.89970404251811</v>
+        <v>22.26324426775155</v>
       </c>
       <c r="G81">
-        <v>87.50887323036216</v>
+        <v>103.1453330051287</v>
       </c>
       <c r="H81">
-        <v>44.82206977867337</v>
+        <v>25.64286481892373</v>
       </c>
       <c r="I81">
-        <v>80.5865074942069</v>
+        <v>99.76571245395652</v>
       </c>
       <c r="J81">
         <v>114.2331775456107</v>
       </c>
       <c r="K81">
-        <v>17.3423344448739</v>
+        <v>26.23481671189628</v>
       </c>
       <c r="L81">
-        <v>80.24282662580947</v>
+        <v>62.81388164928452</v>
       </c>
       <c r="M81">
-        <v>148.223528465412</v>
+        <v>165.6524734419369</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P81">
@@ -7388,31 +7388,31 @@
         <v>117.6861493589253</v>
       </c>
       <c r="E82">
-        <v>13.35818523892468</v>
+        <v>26.04353914279282</v>
       </c>
       <c r="F82">
-        <v>81.36947222956266</v>
+        <v>61.98702660586521</v>
       </c>
       <c r="G82">
-        <v>154.002826488288</v>
+        <v>173.3852721119854</v>
       </c>
       <c r="H82">
-        <v>91.50458739181838</v>
+        <v>66.64175060909224</v>
       </c>
       <c r="I82">
-        <v>143.8677113260323</v>
+        <v>168.7305481087584</v>
       </c>
       <c r="J82">
         <v>114.2331775456107</v>
       </c>
       <c r="K82">
-        <v>17.3423344448739</v>
+        <v>26.23481671189628</v>
       </c>
       <c r="L82">
-        <v>80.24282662580947</v>
+        <v>62.81388164928452</v>
       </c>
       <c r="M82">
-        <v>148.223528465412</v>
+        <v>165.6524734419369</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P82">
@@ -7482,31 +7482,31 @@
         <v>131.5635057678004</v>
       </c>
       <c r="E83">
-        <v>18.73969111646571</v>
+        <v>29.39262308451213</v>
       </c>
       <c r="F83">
-        <v>80.61621767378861</v>
+        <v>68.70172218906103</v>
       </c>
       <c r="G83">
-        <v>182.5107938618121</v>
+        <v>194.4252893465397</v>
       </c>
       <c r="H83">
-        <v>94.83438609812238</v>
+        <v>73.95502311099602</v>
       </c>
       <c r="I83">
-        <v>168.2926254374784</v>
+        <v>189.1719884246047</v>
       </c>
       <c r="J83">
         <v>114.2331775456107</v>
       </c>
       <c r="K83">
-        <v>17.3423344448739</v>
+        <v>26.23481671189628</v>
       </c>
       <c r="L83">
-        <v>80.24282662580947</v>
+        <v>62.81388164928452</v>
       </c>
       <c r="M83">
-        <v>148.223528465412</v>
+        <v>165.6524734419369</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P83">
@@ -7576,31 +7576,31 @@
         <v>125.2803965522823</v>
       </c>
       <c r="E84">
-        <v>29.88872460334951</v>
+        <v>42.76144076356869</v>
       </c>
       <c r="F84">
-        <v>44.02241563543285</v>
+        <v>33.82682239982911</v>
       </c>
       <c r="G84">
-        <v>206.5383774691318</v>
+        <v>216.7339707047355</v>
       </c>
       <c r="H84">
-        <v>66.69957278588109</v>
+        <v>41.46951272864474</v>
       </c>
       <c r="I84">
-        <v>183.8612203186835</v>
+        <v>209.0912803759199</v>
       </c>
       <c r="J84">
         <v>114.2331775456107</v>
       </c>
       <c r="K84">
-        <v>17.3423344448739</v>
+        <v>26.23481671189628</v>
       </c>
       <c r="L84">
-        <v>80.24282662580947</v>
+        <v>62.81388164928452</v>
       </c>
       <c r="M84">
-        <v>148.223528465412</v>
+        <v>165.6524734419369</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P84">
@@ -7670,31 +7670,31 @@
         <v>133.9315474126055</v>
       </c>
       <c r="E85">
-        <v>46.48425395033875</v>
+        <v>65.38926157398086</v>
       </c>
       <c r="F85">
-        <v>7.555575518264035</v>
+        <v>-5.915978193338162</v>
       </c>
       <c r="G85">
-        <v>260.307519306947</v>
+        <v>273.7790730185492</v>
       </c>
       <c r="H85">
-        <v>42.82408382172788</v>
+        <v>5.770949751934182</v>
       </c>
       <c r="I85">
-        <v>225.0390110034832</v>
+        <v>262.0921450732769</v>
       </c>
       <c r="J85">
         <v>114.2331775456107</v>
       </c>
       <c r="K85">
-        <v>17.3423344448739</v>
+        <v>26.23481671189628</v>
       </c>
       <c r="L85">
-        <v>80.24282662580947</v>
+        <v>62.81388164928452</v>
       </c>
       <c r="M85">
-        <v>148.223528465412</v>
+        <v>165.6524734419369</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P85">
@@ -9844,19 +9844,19 @@
         <v>208.6219801621398</v>
       </c>
       <c r="E110">
-        <v>480.349637810096</v>
+        <v>238.4447556949579</v>
       </c>
       <c r="F110">
-        <v>-1054.989865858056</v>
+        <v>-337.2069791710456</v>
       </c>
       <c r="G110">
-        <v>1472.233826182335</v>
+        <v>754.4509394953252</v>
       </c>
       <c r="H110">
-        <v>-732.8460099325075</v>
+        <v>-258.7211533024295</v>
       </c>
       <c r="I110">
-        <v>1150.089970256787</v>
+        <v>675.9651136267091</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P110">
@@ -9926,19 +9926,19 @@
         <v>29.50751408702763</v>
       </c>
       <c r="E111">
-        <v>392.9995396190942</v>
+        <v>136.7584795050527</v>
       </c>
       <c r="F111">
-        <v>-1004.320420096819</v>
+        <v>-283.5492286820487</v>
       </c>
       <c r="G111">
-        <v>1063.335448270874</v>
+        <v>342.564256856104</v>
       </c>
       <c r="H111">
-        <v>-740.7574295072188</v>
+        <v>-238.5341803233347</v>
       </c>
       <c r="I111">
-        <v>799.7724576812741</v>
+        <v>297.54920849739</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P111">
@@ -10008,19 +10008,19 @@
         <v>21.54995483097859</v>
       </c>
       <c r="E112">
-        <v>151.4232072045798</v>
+        <v>151.3917852632232</v>
       </c>
       <c r="F112">
-        <v>-376.7852229749075</v>
+        <v>-325.0041992370262</v>
       </c>
       <c r="G112">
-        <v>419.8851326368647</v>
+        <v>368.1041088989834</v>
       </c>
       <c r="H112">
-        <v>-275.2340777135437</v>
+        <v>-275.1724918401605</v>
       </c>
       <c r="I112">
-        <v>318.3339873755009</v>
+        <v>318.2724015021178</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P112">
@@ -10090,19 +10090,19 @@
         <v>-241.8314871040856</v>
       </c>
       <c r="E113">
-        <v>162.409314584188</v>
+        <v>237.7826020923367</v>
       </c>
       <c r="F113">
-        <v>-669.0668124979067</v>
+        <v>-786.1446965488574</v>
       </c>
       <c r="G113">
-        <v>185.4038382897354</v>
+        <v>302.4817223406862</v>
       </c>
       <c r="H113">
-        <v>-560.1478944429298</v>
+        <v>-707.8768233552839</v>
       </c>
       <c r="I113">
-        <v>76.48492023475862</v>
+        <v>224.2138491471127</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P113">
@@ -10172,19 +10172,19 @@
         <v>39.17752392907268</v>
       </c>
       <c r="E114">
-        <v>153.5706287937582</v>
+        <v>242.1192472352982</v>
       </c>
       <c r="F114">
-        <v>-364.8066793884308</v>
+        <v>-515.062792104733</v>
       </c>
       <c r="G114">
-        <v>443.1617272465762</v>
+        <v>593.4178399628784</v>
       </c>
       <c r="H114">
-        <v>-261.8153775898632</v>
+        <v>-435.3674806160608</v>
       </c>
       <c r="I114">
-        <v>340.1704254480085</v>
+        <v>513.7225284742061</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P114">
@@ -10254,19 +10254,19 @@
         <v>200.1005280967943</v>
       </c>
       <c r="E115">
-        <v>140.8037001142682</v>
+        <v>248.2771665999882</v>
       </c>
       <c r="F115">
-        <v>-170.2988839627287</v>
+        <v>-368.23601206528</v>
       </c>
       <c r="G115">
-        <v>570.4999401563174</v>
+        <v>768.4370682588687</v>
       </c>
       <c r="H115">
-        <v>-75.86965301714957</v>
+        <v>-286.5137766228332</v>
       </c>
       <c r="I115">
-        <v>476.0707092107382</v>
+        <v>686.7148328164219</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P115">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P116">
@@ -10403,31 +10403,31 @@
         <v>46.2940961388877</v>
       </c>
       <c r="E117">
-        <v>116.0281791511413</v>
+        <v>166.555422477634</v>
       </c>
       <c r="F117">
-        <v>-258.9306195826614</v>
+        <v>-334.9714622387855</v>
       </c>
       <c r="G117">
-        <v>351.5188118604368</v>
+        <v>427.559654516561</v>
       </c>
       <c r="H117">
-        <v>-181.1169561891104</v>
+        <v>-280.1485333471279</v>
       </c>
       <c r="I117">
-        <v>273.7051484668858</v>
+        <v>372.7367256249033</v>
       </c>
       <c r="J117">
         <v>277.4027086776564</v>
       </c>
       <c r="K117">
-        <v>198.3837669222038</v>
+        <v>247.9952105102077</v>
       </c>
       <c r="L117">
-        <v>-111.4223296072515</v>
+        <v>-208.6589722607795</v>
       </c>
       <c r="M117">
-        <v>666.2277469625644</v>
+        <v>763.4643896160924</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P117">
@@ -10502,31 +10502,31 @@
         <v>490.6083144232826</v>
       </c>
       <c r="E118">
-        <v>212.0039013983304</v>
+        <v>445.751056537367</v>
       </c>
       <c r="F118">
-        <v>-67.09095319922591</v>
+        <v>-529.7699052709984</v>
       </c>
       <c r="G118">
-        <v>1048.307582045791</v>
+        <v>1510.986534117564</v>
       </c>
       <c r="H118">
-        <v>75.08830310057425</v>
+        <v>-383.047702460634</v>
       </c>
       <c r="I118">
-        <v>906.1283257459909</v>
+        <v>1364.264331307199</v>
       </c>
       <c r="J118">
         <v>277.4027086776564</v>
       </c>
       <c r="K118">
-        <v>198.3837669222038</v>
+        <v>247.9952105102077</v>
       </c>
       <c r="L118">
-        <v>-111.4223296072515</v>
+        <v>-208.6589722607795</v>
       </c>
       <c r="M118">
-        <v>666.2277469625644</v>
+        <v>763.4643896160924</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P118">
@@ -10596,31 +10596,31 @@
         <v>484.5679228820744</v>
       </c>
       <c r="E119">
-        <v>250.2099822225544</v>
+        <v>358.9936128763567</v>
       </c>
       <c r="F119">
-        <v>-173.6365861716368</v>
+        <v>-337.2119881604636</v>
       </c>
       <c r="G119">
-        <v>1142.772431935786</v>
+        <v>1306.347833924612</v>
       </c>
       <c r="H119">
-        <v>-5.834630846539369</v>
+        <v>-219.0466290354992</v>
       </c>
       <c r="I119">
-        <v>974.9704766106881</v>
+        <v>1188.182474799648</v>
       </c>
       <c r="J119">
         <v>277.4027086776564</v>
       </c>
       <c r="K119">
-        <v>198.3837669222038</v>
+        <v>247.9952105102077</v>
       </c>
       <c r="L119">
-        <v>-111.4223296072515</v>
+        <v>-208.6589722607795</v>
       </c>
       <c r="M119">
-        <v>666.2277469625644</v>
+        <v>763.4643896160924</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P119">
@@ -10690,31 +10690,31 @@
         <v>259.0457286969766</v>
       </c>
       <c r="E120">
-        <v>322.9460565878713</v>
+        <v>472.3741925722901</v>
       </c>
       <c r="F120">
-        <v>-590.4989167208148</v>
+        <v>-822.2760776732819</v>
       </c>
       <c r="G120">
-        <v>1108.590374114768</v>
+        <v>1340.367535067235</v>
       </c>
       <c r="H120">
-        <v>-373.9169111644854</v>
+        <v>-666.7906759708997</v>
       </c>
       <c r="I120">
-        <v>892.0083685584386</v>
+        <v>1184.882133364853</v>
       </c>
       <c r="J120">
         <v>277.4027086776564</v>
       </c>
       <c r="K120">
-        <v>198.3837669222038</v>
+        <v>247.9952105102077</v>
       </c>
       <c r="L120">
-        <v>-111.4223296072515</v>
+        <v>-208.6589722607795</v>
       </c>
       <c r="M120">
-        <v>666.2277469625644</v>
+        <v>763.4643896160924</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P120">
@@ -10784,31 +10784,31 @@
         <v>106.4974812470611</v>
       </c>
       <c r="E121">
-        <v>387.8614960778091</v>
+        <v>602.4468353265005</v>
       </c>
       <c r="F121">
-        <v>-913.8142718614035</v>
+        <v>-1272.576376852424</v>
       </c>
       <c r="G121">
-        <v>1126.809234355526</v>
+        <v>1485.571339346546</v>
       </c>
       <c r="H121">
-        <v>-653.697082055268</v>
+        <v>-1074.276618593012</v>
       </c>
       <c r="I121">
-        <v>866.6920445493901</v>
+        <v>1287.271581087135</v>
       </c>
       <c r="J121">
         <v>277.4027086776564</v>
       </c>
       <c r="K121">
-        <v>198.3837669222038</v>
+        <v>247.9952105102077</v>
       </c>
       <c r="L121">
-        <v>-111.4223296072515</v>
+        <v>-208.6589722607795</v>
       </c>
       <c r="M121">
-        <v>666.2277469625644</v>
+        <v>763.4643896160924</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P121">
@@ -12958,19 +12958,19 @@
         <v>0.3051718236270211</v>
       </c>
       <c r="E146">
-        <v>0.1610339050522005</v>
+        <v>0.2143821756621251</v>
       </c>
       <c r="F146">
-        <v>-0.1263196763257421</v>
+        <v>-0.1885016723703655</v>
       </c>
       <c r="G146">
-        <v>0.7366633235797843</v>
+        <v>0.7988453196244076</v>
       </c>
       <c r="H146">
-        <v>-0.01044883056513451</v>
+        <v>-0.1150095195980833</v>
       </c>
       <c r="I146">
-        <v>0.6207924778191767</v>
+        <v>0.7253531668521254</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P146">
@@ -13040,19 +13040,19 @@
         <v>0.2358867431760079</v>
       </c>
       <c r="E147">
-        <v>0.1288571604117431</v>
+        <v>0.145657047724899</v>
       </c>
       <c r="F147">
-        <v>-0.1093869394543264</v>
+        <v>-0.09952838051569976</v>
       </c>
       <c r="G147">
-        <v>0.5811604258063422</v>
+        <v>0.5713018668677156</v>
       </c>
       <c r="H147">
-        <v>-0.01666865038110901</v>
+        <v>-0.04959582445922597</v>
       </c>
       <c r="I147">
-        <v>0.4884421367331249</v>
+        <v>0.5213693108112418</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P147">
@@ -13122,19 +13122,19 @@
         <v>-0.02824023089119457</v>
       </c>
       <c r="E148">
-        <v>0.08376186332750774</v>
+        <v>0.1092782207891867</v>
       </c>
       <c r="F148">
-        <v>-0.2526807425605151</v>
+        <v>-0.2798831724125826</v>
       </c>
       <c r="G148">
-        <v>0.196200280778126</v>
+        <v>0.2234027106301935</v>
       </c>
       <c r="H148">
-        <v>-0.192410466291076</v>
+        <v>-0.2424216079326167</v>
       </c>
       <c r="I148">
-        <v>0.1359300045086869</v>
+        <v>0.1859411461502276</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P148">
@@ -13204,19 +13204,19 @@
         <v>0.08123492346389335</v>
       </c>
       <c r="E149">
-        <v>0.08758489528808842</v>
+        <v>0.08025550965753724</v>
       </c>
       <c r="F149">
-        <v>-0.15344942967784</v>
+        <v>-0.1035753010956855</v>
       </c>
       <c r="G149">
-        <v>0.3159192766056267</v>
+        <v>0.2660451480234722</v>
       </c>
       <c r="H149">
-        <v>-0.09042831689047179</v>
+        <v>-0.07606298502578607</v>
       </c>
       <c r="I149">
-        <v>0.2528981638182585</v>
+        <v>0.2385328319535728</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P149">
@@ -13286,19 +13286,19 @@
         <v>0.002496637780492181</v>
       </c>
       <c r="E150">
-        <v>0.06017571559096802</v>
+        <v>0.07120655950854331</v>
       </c>
       <c r="F150">
-        <v>-0.1587446223917728</v>
+        <v>-0.1614759082670427</v>
       </c>
       <c r="G150">
-        <v>0.1637378979527571</v>
+        <v>0.1664691838280271</v>
       </c>
       <c r="H150">
-        <v>-0.1154455975217305</v>
+        <v>-0.1370656543192608</v>
       </c>
       <c r="I150">
-        <v>0.1204388730827149</v>
+        <v>0.1420589298802452</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P150">
@@ -13368,19 +13368,19 @@
         <v>-0.1015064609862333</v>
       </c>
       <c r="E151">
-        <v>0.0796007125212191</v>
+        <v>0.1088090806558106</v>
       </c>
       <c r="F151">
-        <v>-0.3147971393185736</v>
+        <v>-0.3520690792529423</v>
       </c>
       <c r="G151">
-        <v>0.1117842173461071</v>
+        <v>0.1490561572804757</v>
       </c>
       <c r="H151">
-        <v>-0.2575209906715492</v>
+        <v>-0.3147683402625358</v>
       </c>
       <c r="I151">
-        <v>0.05450806869908265</v>
+        <v>0.1117554182900692</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P151">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P152">
@@ -13517,31 +13517,31 @@
         <v>-0.005693638621612738</v>
       </c>
       <c r="E153">
-        <v>0.0751654674637586</v>
+        <v>0.04766088343158163</v>
       </c>
       <c r="F153">
-        <v>-0.20710004611123</v>
+        <v>-0.115445836411952</v>
       </c>
       <c r="G153">
-        <v>0.1957127688680045</v>
+        <v>0.1040585591687266</v>
       </c>
       <c r="H153">
-        <v>-0.1530152477316968</v>
+        <v>-0.09910725361887449</v>
       </c>
       <c r="I153">
-        <v>0.1416279704884713</v>
+        <v>0.08771997637564902</v>
       </c>
       <c r="J153">
         <v>0.06306008649708082</v>
       </c>
       <c r="K153">
-        <v>0.08099571300891846</v>
+        <v>0.1490220853484289</v>
       </c>
       <c r="L153">
-        <v>-0.09568859390254165</v>
+        <v>-0.2290178336868938</v>
       </c>
       <c r="M153">
-        <v>0.2218087668967033</v>
+        <v>0.3551380066810555</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P153">
@@ -13616,31 +13616,31 @@
         <v>0.05217244352471678</v>
       </c>
       <c r="E154">
-        <v>0.08844680173234948</v>
+        <v>0.0813508712532022</v>
       </c>
       <c r="F154">
-        <v>-0.1848213940969005</v>
+        <v>-0.1351601501947191</v>
       </c>
       <c r="G154">
-        <v>0.289166281146334</v>
+        <v>0.2395050372441527</v>
       </c>
       <c r="H154">
-        <v>-0.121180102418443</v>
+        <v>-0.1072723342425143</v>
       </c>
       <c r="I154">
-        <v>0.2255249894678766</v>
+        <v>0.2116172212919479</v>
       </c>
       <c r="J154">
         <v>0.06306008649708082</v>
       </c>
       <c r="K154">
-        <v>0.08099571300891846</v>
+        <v>0.1490220853484289</v>
       </c>
       <c r="L154">
-        <v>-0.09568859390254165</v>
+        <v>-0.2290178336868938</v>
       </c>
       <c r="M154">
-        <v>0.2218087668967033</v>
+        <v>0.3551380066810555</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P154">
@@ -13710,31 +13710,31 @@
         <v>0.03953272106117629</v>
       </c>
       <c r="E155">
-        <v>0.09310143485348542</v>
+        <v>0.1586908934998623</v>
       </c>
       <c r="F155">
-        <v>-0.2099332392883703</v>
+        <v>-0.3258963913874972</v>
       </c>
       <c r="G155">
-        <v>0.2889986814107228</v>
+        <v>0.4049618335098498</v>
       </c>
       <c r="H155">
-        <v>-0.1429427381606572</v>
+        <v>-0.2714957148730352</v>
       </c>
       <c r="I155">
-        <v>0.2220081802830098</v>
+        <v>0.3505611569953878</v>
       </c>
       <c r="J155">
         <v>0.06306008649708082</v>
       </c>
       <c r="K155">
-        <v>0.08099571300891846</v>
+        <v>0.1490220853484289</v>
       </c>
       <c r="L155">
-        <v>-0.09568859390254165</v>
+        <v>-0.2290178336868938</v>
       </c>
       <c r="M155">
-        <v>0.2218087668967033</v>
+        <v>0.3551380066810555</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P155">
@@ -13804,31 +13804,31 @@
         <v>-0.02282219897200898</v>
       </c>
       <c r="E156">
-        <v>0.1266271706441185</v>
+        <v>0.2348897621279153</v>
       </c>
       <c r="F156">
-        <v>-0.3621206080759405</v>
+        <v>-0.5637200123538373</v>
       </c>
       <c r="G156">
-        <v>0.3164762101319226</v>
+        <v>0.5180756144098193</v>
       </c>
       <c r="H156">
-        <v>-0.2710068928986887</v>
+        <v>-0.4831976730799032</v>
       </c>
       <c r="I156">
-        <v>0.2253624949546708</v>
+        <v>0.4375532751358853</v>
       </c>
       <c r="J156">
         <v>0.06306008649708082</v>
       </c>
       <c r="K156">
-        <v>0.08099571300891846</v>
+        <v>0.1490220853484289</v>
       </c>
       <c r="L156">
-        <v>-0.09568859390254165</v>
+        <v>-0.2290178336868938</v>
       </c>
       <c r="M156">
-        <v>0.2218087668967033</v>
+        <v>0.3551380066810555</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P156">
@@ -13898,31 +13898,31 @@
         <v>0.2521111054931328</v>
       </c>
       <c r="E157">
-        <v>0.2681163687421076</v>
+        <v>0.5534351859621948</v>
       </c>
       <c r="F157">
-        <v>-0.4663086215383785</v>
+        <v>-1.022324524325832</v>
       </c>
       <c r="G157">
-        <v>0.970530832524644</v>
+        <v>1.526546735312098</v>
       </c>
       <c r="H157">
-        <v>-0.2733873209070589</v>
+        <v>-0.8326019267699961</v>
       </c>
       <c r="I157">
-        <v>0.7776095318933244</v>
+        <v>1.336824137756262</v>
       </c>
       <c r="J157">
         <v>0.06306008649708082</v>
       </c>
       <c r="K157">
-        <v>0.08099571300891846</v>
+        <v>0.1490220853484289</v>
       </c>
       <c r="L157">
-        <v>-0.09568859390254165</v>
+        <v>-0.2290178336868938</v>
       </c>
       <c r="M157">
-        <v>0.2218087668967033</v>
+        <v>0.3551380066810555</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P157">
@@ -16072,19 +16072,19 @@
         <v>-0.001850053373601091</v>
       </c>
       <c r="E182">
-        <v>0.006272874158329857</v>
+        <v>0.00624114322312308</v>
       </c>
       <c r="F182">
-        <v>-0.01889372432251921</v>
+        <v>-0.01722981979015859</v>
       </c>
       <c r="G182">
-        <v>0.01519361757531703</v>
+        <v>0.01352971304295641</v>
       </c>
       <c r="H182">
-        <v>-0.01414466080347961</v>
+        <v>-0.01408246931327856</v>
       </c>
       <c r="I182">
-        <v>0.01044455405627743</v>
+        <v>0.01038236256607637</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P182">
@@ -16153,19 +16153,19 @@
         <v>-0.006777805676528715</v>
       </c>
       <c r="E183">
-        <v>0.006838072014409109</v>
+        <v>0.005909475362334739</v>
       </c>
       <c r="F183">
-        <v>-0.02535714369558196</v>
+        <v>-0.02134025801384747</v>
       </c>
       <c r="G183">
-        <v>0.01180153234252453</v>
+        <v>0.007784646660790037</v>
       </c>
       <c r="H183">
-        <v>-0.02018018054846182</v>
+        <v>-0.01836016455423159</v>
       </c>
       <c r="I183">
-        <v>0.006624569195404394</v>
+        <v>0.004804553201174157</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P183">
@@ -16234,19 +16234,19 @@
         <v>-0.001419986473810556</v>
       </c>
       <c r="E184">
-        <v>0.004142236119469093</v>
+        <v>0.004967924656410513</v>
       </c>
       <c r="F184">
-        <v>-0.0126746215312037</v>
+        <v>-0.0136622180745167</v>
       </c>
       <c r="G184">
-        <v>0.009834648583582586</v>
+        <v>0.01082224512689559</v>
       </c>
       <c r="H184">
-        <v>-0.00953862008343093</v>
+        <v>-0.01115693987828368</v>
       </c>
       <c r="I184">
-        <v>0.006698647135809817</v>
+        <v>0.00831696693066257</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P184">
@@ -16315,19 +16315,19 @@
         <v>-0.0007212009918386017</v>
       </c>
       <c r="E185">
-        <v>0.003433508486159873</v>
+        <v>0.004241788722893647</v>
       </c>
       <c r="F185">
-        <v>-0.01005019235391107</v>
+        <v>-0.01117404871768312</v>
       </c>
       <c r="G185">
-        <v>0.008607790370233872</v>
+        <v>0.009731646734005919</v>
       </c>
       <c r="H185">
-        <v>-0.007450753965324595</v>
+        <v>-0.009034954118738298</v>
       </c>
       <c r="I185">
-        <v>0.006008351981647391</v>
+        <v>0.007592552135061096</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P185">
@@ -16396,19 +16396,19 @@
         <v>-0.001263257191240375</v>
       </c>
       <c r="E186">
-        <v>0.002582409759417066</v>
+        <v>0.003582515201318858</v>
       </c>
       <c r="F186">
-        <v>-0.008279776426897712</v>
+        <v>-0.01009148705398646</v>
       </c>
       <c r="G186">
-        <v>0.005753262044416962</v>
+        <v>0.007564972671505708</v>
       </c>
       <c r="H186">
-        <v>-0.006324687313022569</v>
+        <v>-0.008284857959892597</v>
       </c>
       <c r="I186">
-        <v>0.003798172930541818</v>
+        <v>0.005758343577411847</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P186">
@@ -16477,19 +16477,19 @@
         <v>0.001922870845970964</v>
       </c>
       <c r="E187">
-        <v>0.002126560492620482</v>
+        <v>0.002785166071641032</v>
       </c>
       <c r="F187">
-        <v>-0.003855086175701973</v>
+        <v>-0.004940487689763025</v>
       </c>
       <c r="G187">
-        <v>0.007700827867643902</v>
+        <v>0.008786229381704954</v>
       </c>
       <c r="H187">
-        <v>-0.002245111130510934</v>
+        <v>-0.003535954345408362</v>
       </c>
       <c r="I187">
-        <v>0.006090852822452863</v>
+        <v>0.00738169603735029</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P187">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P188">
@@ -16624,31 +16624,31 @@
         <v>0.0001389976506296726</v>
       </c>
       <c r="E189">
-        <v>0.002345042911087707</v>
+        <v>0.002876716599682224</v>
       </c>
       <c r="F189">
-        <v>-0.006232585570850636</v>
+        <v>-0.006949964702585923</v>
       </c>
       <c r="G189">
-        <v>0.006510580872109981</v>
+        <v>0.007227960003845268</v>
       </c>
       <c r="H189">
-        <v>-0.004457201997303196</v>
+        <v>-0.005499263278476014</v>
       </c>
       <c r="I189">
-        <v>0.004735197298562541</v>
+        <v>0.005777258579735359</v>
       </c>
       <c r="J189">
         <v>0.0002646332597538265</v>
       </c>
       <c r="K189">
-        <v>0.002482650740297499</v>
+        <v>0.002613799062085839</v>
       </c>
       <c r="L189">
-        <v>-0.004601272777420973</v>
+        <v>-0.004858318764758991</v>
       </c>
       <c r="M189">
-        <v>0.005130539296928626</v>
+        <v>0.005387585284266644</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P189">
@@ -16722,31 +16722,31 @@
         <v>-0.0009522842328355246</v>
       </c>
       <c r="E190">
-        <v>0.003066291095299398</v>
+        <v>0.002718572977593652</v>
       </c>
       <c r="F190">
-        <v>-0.009283530029067956</v>
+        <v>-0.007651540424689628</v>
       </c>
       <c r="G190">
-        <v>0.007378961563396907</v>
+        <v>0.005746971959018579</v>
       </c>
       <c r="H190">
-        <v>-0.006962104345738219</v>
+        <v>-0.006280589358262896</v>
       </c>
       <c r="I190">
-        <v>0.005057535880067169</v>
+        <v>0.004376020892591847</v>
       </c>
       <c r="J190">
         <v>0.0002646332597538265</v>
       </c>
       <c r="K190">
-        <v>0.002482650740297499</v>
+        <v>0.002613799062085839</v>
       </c>
       <c r="L190">
-        <v>-0.004601272777420973</v>
+        <v>-0.004858318764758991</v>
       </c>
       <c r="M190">
-        <v>0.005130539296928626</v>
+        <v>0.005387585284266644</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P190">
@@ -16815,31 +16815,31 @@
         <v>0.002537285920264217</v>
       </c>
       <c r="E191">
-        <v>0.003587745250777383</v>
+        <v>0.004332531131521213</v>
       </c>
       <c r="F191">
-        <v>-0.007210773415756972</v>
+        <v>-0.008139174211012241</v>
       </c>
       <c r="G191">
-        <v>0.01228534525628541</v>
+        <v>0.01321374605154068</v>
       </c>
       <c r="H191">
-        <v>-0.004494565556964075</v>
+        <v>-0.005954319059415927</v>
       </c>
       <c r="I191">
-        <v>0.00956913739749251</v>
+        <v>0.01102889089994436</v>
       </c>
       <c r="J191">
         <v>0.0002646332597538265</v>
       </c>
       <c r="K191">
-        <v>0.002482650740297499</v>
+        <v>0.002613799062085839</v>
       </c>
       <c r="L191">
-        <v>-0.004601272777420973</v>
+        <v>-0.004858318764758991</v>
       </c>
       <c r="M191">
-        <v>0.005130539296928626</v>
+        <v>0.005387585284266644</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P191">
@@ -16908,31 +16908,31 @@
         <v>-0.001708918586157585</v>
       </c>
       <c r="E192">
-        <v>0.003410013301408144</v>
+        <v>0.003540959341950394</v>
       </c>
       <c r="F192">
-        <v>-0.01097407251299939</v>
+        <v>-0.0104347442278375</v>
       </c>
       <c r="G192">
-        <v>0.007556235340684218</v>
+        <v>0.00701690705552233</v>
       </c>
       <c r="H192">
-        <v>-0.008392421843720074</v>
+        <v>-0.008649071367101005</v>
       </c>
       <c r="I192">
-        <v>0.004974584671404903</v>
+        <v>0.005231234194785835</v>
       </c>
       <c r="J192">
         <v>0.0002646332597538265</v>
       </c>
       <c r="K192">
-        <v>0.002482650740297499</v>
+        <v>0.002613799062085839</v>
       </c>
       <c r="L192">
-        <v>-0.004601272777420973</v>
+        <v>-0.004858318764758991</v>
       </c>
       <c r="M192">
-        <v>0.005130539296928626</v>
+        <v>0.005387585284266644</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P192">
@@ -17001,31 +17001,31 @@
         <v>0.001308085546868352</v>
       </c>
       <c r="E193">
-        <v>0.00535337534156884</v>
+        <v>0.005380523815373951</v>
       </c>
       <c r="F193">
-        <v>-0.01323726726665665</v>
+        <v>-0.01195089546362788</v>
       </c>
       <c r="G193">
-        <v>0.01585343836039335</v>
+        <v>0.01456706655736458</v>
       </c>
       <c r="H193">
-        <v>-0.009184337318331383</v>
+        <v>-0.009237547349224631</v>
       </c>
       <c r="I193">
-        <v>0.01180050841206809</v>
+        <v>0.01185371844296133</v>
       </c>
       <c r="J193">
         <v>0.0002646332597538265</v>
       </c>
       <c r="K193">
-        <v>0.002482650740297499</v>
+        <v>0.002613799062085839</v>
       </c>
       <c r="L193">
-        <v>-0.004601272777420973</v>
+        <v>-0.004858318764758991</v>
       </c>
       <c r="M193">
-        <v>0.005130539296928626</v>
+        <v>0.005387585284266644</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>u.cls</t>
         </is>
       </c>
       <c r="P193">

--- a/1 NHI impact/output/sfig_8_did_adjust.xlsx
+++ b/1 NHI impact/output/sfig_8_did_adjust.xlsx
@@ -553,7 +553,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -635,7 +635,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -717,7 +717,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -799,7 +799,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -881,7 +881,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -963,7 +963,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1030,7 +1030,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1124,7 +1124,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1223,7 +1223,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1317,7 +1317,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1411,7 +1411,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1505,7 +1505,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1587,7 +1587,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -1670,7 +1670,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -1753,7 +1753,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -1836,7 +1836,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -1919,7 +1919,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2002,7 +2002,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2070,7 +2070,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2165,7 +2165,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2265,7 +2265,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2360,7 +2360,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2455,7 +2455,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -2550,7 +2550,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -2633,7 +2633,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -2715,7 +2715,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -2797,7 +2797,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -2879,7 +2879,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -2961,7 +2961,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3043,7 +3043,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -3110,7 +3110,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -3204,7 +3204,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -3303,7 +3303,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -3397,7 +3397,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -3491,7 +3491,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -3585,7 +3585,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -3667,7 +3667,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -3749,7 +3749,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -3831,7 +3831,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -3913,7 +3913,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -3995,7 +3995,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -4077,7 +4077,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4144,7 +4144,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -4238,7 +4238,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -4337,7 +4337,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4431,7 +4431,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4525,7 +4525,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -4619,7 +4619,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -4701,7 +4701,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -4784,7 +4784,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -4867,7 +4867,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -4950,7 +4950,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -5033,7 +5033,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -5116,7 +5116,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -5184,7 +5184,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -5279,7 +5279,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -5379,7 +5379,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -5474,7 +5474,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -5569,7 +5569,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -5664,7 +5664,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5747,7 +5747,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -5829,7 +5829,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -5911,7 +5911,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -5993,7 +5993,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -6075,7 +6075,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -6157,7 +6157,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -6224,7 +6224,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6318,7 +6318,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -6417,7 +6417,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -6511,7 +6511,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
@@ -6605,7 +6605,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -6699,7 +6699,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -19166,7 +19166,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X218" t="inlineStr">
@@ -19214,7 +19214,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X219" t="inlineStr">
@@ -19297,7 +19297,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X220" t="inlineStr">
@@ -19380,7 +19380,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X221" t="inlineStr">
@@ -19463,7 +19463,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X222" t="inlineStr">
@@ -19546,7 +19546,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X223" t="inlineStr">
@@ -19614,7 +19614,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X224" t="inlineStr">
@@ -19709,7 +19709,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W225" t="inlineStr">
@@ -19809,7 +19809,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X226" t="inlineStr">
@@ -19904,7 +19904,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X227" t="inlineStr">
@@ -19952,7 +19952,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X228" t="inlineStr">
@@ -20000,7 +20000,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X229" t="inlineStr">
@@ -20048,7 +20048,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X230" t="inlineStr">
@@ -20096,7 +20096,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X231" t="inlineStr">
@@ -20179,7 +20179,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X232" t="inlineStr">
@@ -20262,7 +20262,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X233" t="inlineStr">
@@ -20345,7 +20345,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X234" t="inlineStr">
@@ -20428,7 +20428,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X235" t="inlineStr">
@@ -20496,7 +20496,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X236" t="inlineStr">
@@ -20591,7 +20591,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W237" t="inlineStr">
@@ -20691,7 +20691,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X238" t="inlineStr">
@@ -20786,7 +20786,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X239" t="inlineStr">
@@ -20834,7 +20834,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X240" t="inlineStr">
@@ -20882,7 +20882,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X241" t="inlineStr">

--- a/1 NHI impact/output/sfig_8_did_adjust.xlsx
+++ b/1 NHI impact/output/sfig_8_did_adjust.xlsx
@@ -2638,7 +2638,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -12932,7 +12932,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15858,7 +15858,7 @@
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -16046,7 +16046,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18264,7 +18264,7 @@
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18654,7 +18654,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18752,7 +18752,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -18938,7 +18938,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>Last treated units
+          <t>Last-treated units
 as control</t>
         </is>
       </c>
